--- a/20170816_Pixelwaarden.xlsx
+++ b/20170816_Pixelwaarden.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
   <si>
     <t>min</t>
   </si>
@@ -39,6 +39,15 @@
   </si>
   <si>
     <t>met persoon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> min</t>
+  </si>
+  <si>
+    <t>aant max</t>
+  </si>
+  <si>
+    <t>aant min</t>
   </si>
 </sst>
 </file>
@@ -393,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="N12" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,6 +532,15 @@
       <c r="C7">
         <v>74</v>
       </c>
+      <c r="E7">
+        <v>255</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>91</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -534,6 +552,15 @@
       <c r="C8">
         <v>69</v>
       </c>
+      <c r="E8">
+        <v>255</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>88</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -545,6 +572,15 @@
       <c r="C9">
         <v>82</v>
       </c>
+      <c r="E9">
+        <v>255</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>89</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -555,6 +591,15 @@
       </c>
       <c r="C10">
         <v>64</v>
+      </c>
+      <c r="E10">
+        <v>255</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -567,6 +612,15 @@
       <c r="C11">
         <v>71</v>
       </c>
+      <c r="E11">
+        <v>255</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>89</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -577,6 +631,871 @@
       </c>
       <c r="C12">
         <v>59</v>
+      </c>
+      <c r="E12">
+        <v>255</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>198</v>
+      </c>
+      <c r="B13">
+        <v>48</v>
+      </c>
+      <c r="C13">
+        <v>84</v>
+      </c>
+      <c r="E13">
+        <v>255</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>206</v>
+      </c>
+      <c r="B14">
+        <v>40</v>
+      </c>
+      <c r="C14">
+        <v>82</v>
+      </c>
+      <c r="E14">
+        <v>255</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>173</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>65</v>
+      </c>
+      <c r="E15">
+        <v>255</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>190</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>66</v>
+      </c>
+      <c r="E16">
+        <v>255</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <f>AVERAGE(C3:C16)</f>
+        <v>72.428571428571431</v>
+      </c>
+      <c r="G18">
+        <f>AVERAGE(G3:G16)</f>
+        <v>83.785714285714292</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" t="s">
+        <v>2</v>
+      </c>
+      <c r="K23" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" t="s">
+        <v>7</v>
+      </c>
+      <c r="N23" t="s">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>6</v>
+      </c>
+      <c r="R23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>202</v>
+      </c>
+      <c r="B24">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>78</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>255</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>99</v>
+      </c>
+      <c r="K24">
+        <v>19</v>
+      </c>
+      <c r="L24">
+        <v>28</v>
+      </c>
+      <c r="N24">
+        <v>255</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>100</v>
+      </c>
+      <c r="Q24">
+        <v>12</v>
+      </c>
+      <c r="R24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>188</v>
+      </c>
+      <c r="B25">
+        <v>18</v>
+      </c>
+      <c r="C25">
+        <v>74</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>255</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>89</v>
+      </c>
+      <c r="K25">
+        <v>14</v>
+      </c>
+      <c r="L25">
+        <v>20</v>
+      </c>
+      <c r="N25">
+        <v>255</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>106</v>
+      </c>
+      <c r="Q25">
+        <v>11</v>
+      </c>
+      <c r="R25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>196</v>
+      </c>
+      <c r="B26">
+        <v>39</v>
+      </c>
+      <c r="C26">
+        <v>83</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>255</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>93</v>
+      </c>
+      <c r="K26">
+        <v>18</v>
+      </c>
+      <c r="L26">
+        <v>19</v>
+      </c>
+      <c r="N26">
+        <v>255</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>105</v>
+      </c>
+      <c r="Q26">
+        <v>26</v>
+      </c>
+      <c r="R26">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>208</v>
+      </c>
+      <c r="B27">
+        <v>39</v>
+      </c>
+      <c r="C27">
+        <v>83</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>255</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>95</v>
+      </c>
+      <c r="K27">
+        <v>20</v>
+      </c>
+      <c r="L27">
+        <v>23</v>
+      </c>
+      <c r="N27">
+        <v>255</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>96</v>
+      </c>
+      <c r="Q27">
+        <v>7</v>
+      </c>
+      <c r="R27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>193</v>
+      </c>
+      <c r="B28">
+        <v>25</v>
+      </c>
+      <c r="C28">
+        <v>77</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>255</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>88</v>
+      </c>
+      <c r="K28">
+        <v>17</v>
+      </c>
+      <c r="L28">
+        <v>22</v>
+      </c>
+      <c r="N28">
+        <v>255</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>107</v>
+      </c>
+      <c r="Q28">
+        <v>73</v>
+      </c>
+      <c r="R28">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>207</v>
+      </c>
+      <c r="B29">
+        <v>36</v>
+      </c>
+      <c r="C29">
+        <v>84</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>255</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>88</v>
+      </c>
+      <c r="K29">
+        <v>22</v>
+      </c>
+      <c r="L29">
+        <v>22</v>
+      </c>
+      <c r="N29">
+        <v>255</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>104</v>
+      </c>
+      <c r="Q29">
+        <v>40</v>
+      </c>
+      <c r="R29">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>255</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>61</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>8</v>
+      </c>
+      <c r="H30">
+        <v>255</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>91</v>
+      </c>
+      <c r="K30">
+        <v>21</v>
+      </c>
+      <c r="L30">
+        <v>22</v>
+      </c>
+      <c r="N30">
+        <v>255</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>103</v>
+      </c>
+      <c r="Q30">
+        <v>42</v>
+      </c>
+      <c r="R30">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>211</v>
+      </c>
+      <c r="B31">
+        <v>39</v>
+      </c>
+      <c r="C31">
+        <v>82</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>255</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>86</v>
+      </c>
+      <c r="K31">
+        <v>19</v>
+      </c>
+      <c r="L31">
+        <v>17</v>
+      </c>
+      <c r="N31">
+        <v>255</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>102</v>
+      </c>
+      <c r="Q31">
+        <v>45</v>
+      </c>
+      <c r="R31">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>182</v>
+      </c>
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>73</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>255</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>85</v>
+      </c>
+      <c r="K32">
+        <v>19</v>
+      </c>
+      <c r="L32">
+        <v>23</v>
+      </c>
+      <c r="N32">
+        <v>255</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>89</v>
+      </c>
+      <c r="Q32">
+        <v>22</v>
+      </c>
+      <c r="R32">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>202</v>
+      </c>
+      <c r="B33">
+        <v>28</v>
+      </c>
+      <c r="C33">
+        <v>78</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>255</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>83</v>
+      </c>
+      <c r="K33">
+        <v>6</v>
+      </c>
+      <c r="L33">
+        <v>10</v>
+      </c>
+      <c r="N33">
+        <v>255</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>104</v>
+      </c>
+      <c r="Q33">
+        <v>11</v>
+      </c>
+      <c r="R33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>185</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>72</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>255</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>72</v>
+      </c>
+      <c r="K34">
+        <v>35</v>
+      </c>
+      <c r="L34">
+        <v>37</v>
+      </c>
+      <c r="N34">
+        <v>255</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>96</v>
+      </c>
+      <c r="Q34">
+        <v>9</v>
+      </c>
+      <c r="R34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>197</v>
+      </c>
+      <c r="B35">
+        <v>15</v>
+      </c>
+      <c r="C35">
+        <v>75</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>255</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>78</v>
+      </c>
+      <c r="K35">
+        <v>15</v>
+      </c>
+      <c r="L35">
+        <v>23</v>
+      </c>
+      <c r="N35">
+        <v>255</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>96</v>
+      </c>
+      <c r="Q35">
+        <v>8</v>
+      </c>
+      <c r="R35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>174</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>67</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>255</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>77</v>
+      </c>
+      <c r="K36">
+        <v>16</v>
+      </c>
+      <c r="L36">
+        <v>9</v>
+      </c>
+      <c r="N36">
+        <v>255</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>86</v>
+      </c>
+      <c r="Q36">
+        <v>7</v>
+      </c>
+      <c r="R36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>200</v>
+      </c>
+      <c r="B37">
+        <v>30</v>
+      </c>
+      <c r="C37">
+        <v>81</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>255</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>86</v>
+      </c>
+      <c r="K37">
+        <v>27</v>
+      </c>
+      <c r="L37">
+        <v>16</v>
+      </c>
+      <c r="N37">
+        <v>255</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>94</v>
+      </c>
+      <c r="Q37">
+        <v>11</v>
+      </c>
+      <c r="R37">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>255</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>60</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>11</v>
+      </c>
+      <c r="H38">
+        <v>255</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>85</v>
+      </c>
+      <c r="K38">
+        <v>8</v>
+      </c>
+      <c r="L38">
+        <v>6</v>
+      </c>
+      <c r="N38">
+        <v>255</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>94</v>
+      </c>
+      <c r="Q38">
+        <v>4</v>
+      </c>
+      <c r="R38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <f>AVERAGE(C24:C38)</f>
+        <v>75.2</v>
+      </c>
+      <c r="J40">
+        <f>AVERAGE(J24:J38)</f>
+        <v>86.333333333333329</v>
+      </c>
+      <c r="P40">
+        <f>AVERAGE(P24:P38)</f>
+        <v>98.8</v>
       </c>
     </row>
   </sheetData>

--- a/20170816_Pixelwaarden.xlsx
+++ b/20170816_Pixelwaarden.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
   <si>
     <t>min</t>
   </si>
@@ -48,6 +49,15 @@
   </si>
   <si>
     <t>aant min</t>
+  </si>
+  <si>
+    <t>frame nummer</t>
+  </si>
+  <si>
+    <t>y hoofd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x hoofd </t>
   </si>
 </sst>
 </file>
@@ -103,6 +113,5303 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x hoofd </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad2!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad2!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EAFC-474E-98CC-DB4A39ADDC5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y hoofd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad2!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad2!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>124</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EAFC-474E-98CC-DB4A39ADDC5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="158480632"/>
+        <c:axId val="158476040"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Blad2!$A$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>frame nummer</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Blad2!$A$2:$A$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>36</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Blad2!$A$2:$A$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>36</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-EAFC-474E-98CC-DB4A39ADDC5A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="158480632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="158476040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="158476040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="158480632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad2!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x hoofd </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad2!$A$19:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad2!$B$19:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1A96-43B7-B4EE-0E1C3D861C50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad2!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y hoofd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad2!$A$19:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad2!$C$19:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>153</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1A96-43B7-B4EE-0E1C3D861C50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="156771408"/>
+        <c:axId val="156771736"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Blad2!$A$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>frame nummer</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Blad2!$A$19:$A$46</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="28"/>
+                      <c:pt idx="0">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>73</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Blad2!$A$19:$A$46</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="28"/>
+                      <c:pt idx="0">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>73</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-1A96-43B7-B4EE-0E1C3D861C50}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="156771408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="156771736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="156771736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="156771408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad2!$B$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x hoofd </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad2!$A$49:$A$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad2!$B$49:$B$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4E20-4308-A4AD-143B70EF7710}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad2!$C$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y hoofd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad2!$A$49:$A$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad2!$C$49:$C$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4E20-4308-A4AD-143B70EF7710}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="414403144"/>
+        <c:axId val="414399536"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="414403144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="414399536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="414399536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="414403144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad2!$B$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x hoofd </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad2!$A$71:$A$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad2!$B$71:$B$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0D24-4057-BAE1-3A3BE4A5B238}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad2!$C$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y hoofd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad2!$A$71:$A$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad2!$C$71:$C$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0D24-4057-BAE1-3A3BE4A5B238}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="155716288"/>
+        <c:axId val="155716616"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="155716288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="155716616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="155716616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="155716288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafiek 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{477E5101-9D57-4D8C-AEEC-64512AA4B482}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafiek 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{870AAB0A-0B8C-40AF-94DC-31A6846D5571}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>293914</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Grafiek 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0990438C-0B26-4413-B58C-436BF61ACF02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Grafiek 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2047061F-D1AE-42F6-A601-49DD54858FA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -404,7 +5711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N12" workbookViewId="0">
+    <sheetView topLeftCell="N12" workbookViewId="0">
       <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
@@ -1505,4 +6812,1229 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C115"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70:C115"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>55</v>
+      </c>
+      <c r="C2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>48</v>
+      </c>
+      <c r="C3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>60</v>
+      </c>
+      <c r="C4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>64</v>
+      </c>
+      <c r="C14">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>46</v>
+      </c>
+      <c r="B19">
+        <v>62</v>
+      </c>
+      <c r="C19">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>47</v>
+      </c>
+      <c r="B20">
+        <v>40</v>
+      </c>
+      <c r="C20">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>48</v>
+      </c>
+      <c r="B21">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>49</v>
+      </c>
+      <c r="B22">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>50</v>
+      </c>
+      <c r="B23">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>51</v>
+      </c>
+      <c r="B24">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>52</v>
+      </c>
+      <c r="B25">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>53</v>
+      </c>
+      <c r="B26">
+        <v>27</v>
+      </c>
+      <c r="C26">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>54</v>
+      </c>
+      <c r="B27">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>55</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>56</v>
+      </c>
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>57</v>
+      </c>
+      <c r="B30">
+        <v>27</v>
+      </c>
+      <c r="C30">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>58</v>
+      </c>
+      <c r="B31">
+        <v>28</v>
+      </c>
+      <c r="C31">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>59</v>
+      </c>
+      <c r="B32">
+        <v>27</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>60</v>
+      </c>
+      <c r="B33">
+        <v>27</v>
+      </c>
+      <c r="C33">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>61</v>
+      </c>
+      <c r="B34">
+        <v>27</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>62</v>
+      </c>
+      <c r="B35">
+        <v>26</v>
+      </c>
+      <c r="C35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>63</v>
+      </c>
+      <c r="B36">
+        <v>26</v>
+      </c>
+      <c r="C36">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>64</v>
+      </c>
+      <c r="B37">
+        <v>27</v>
+      </c>
+      <c r="C37">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>65</v>
+      </c>
+      <c r="B38">
+        <v>28</v>
+      </c>
+      <c r="C38">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>66</v>
+      </c>
+      <c r="B39">
+        <v>26</v>
+      </c>
+      <c r="C39">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>67</v>
+      </c>
+      <c r="B40">
+        <v>28</v>
+      </c>
+      <c r="C40">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>68</v>
+      </c>
+      <c r="B41">
+        <v>28</v>
+      </c>
+      <c r="C41">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>69</v>
+      </c>
+      <c r="B42">
+        <v>27</v>
+      </c>
+      <c r="C42">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>70</v>
+      </c>
+      <c r="B43">
+        <v>26</v>
+      </c>
+      <c r="C43">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>71</v>
+      </c>
+      <c r="B44">
+        <v>40</v>
+      </c>
+      <c r="C44">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>72</v>
+      </c>
+      <c r="B45">
+        <v>63</v>
+      </c>
+      <c r="C45">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>73</v>
+      </c>
+      <c r="B46">
+        <v>87</v>
+      </c>
+      <c r="C46">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>88</v>
+      </c>
+      <c r="B49">
+        <v>65</v>
+      </c>
+      <c r="C49">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>89</v>
+      </c>
+      <c r="B50">
+        <v>36</v>
+      </c>
+      <c r="C50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>90</v>
+      </c>
+      <c r="B51">
+        <v>32</v>
+      </c>
+      <c r="C51">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>91</v>
+      </c>
+      <c r="B52">
+        <v>16</v>
+      </c>
+      <c r="C52">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>92</v>
+      </c>
+      <c r="B53">
+        <v>21</v>
+      </c>
+      <c r="C53">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>93</v>
+      </c>
+      <c r="B54">
+        <v>19</v>
+      </c>
+      <c r="C54">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>94</v>
+      </c>
+      <c r="B55">
+        <v>22</v>
+      </c>
+      <c r="C55">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>95</v>
+      </c>
+      <c r="B56">
+        <v>21</v>
+      </c>
+      <c r="C56">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>96</v>
+      </c>
+      <c r="B57">
+        <v>22</v>
+      </c>
+      <c r="C57">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>97</v>
+      </c>
+      <c r="B58">
+        <v>21</v>
+      </c>
+      <c r="C58">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>98</v>
+      </c>
+      <c r="B59">
+        <v>22</v>
+      </c>
+      <c r="C59">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>99</v>
+      </c>
+      <c r="B60">
+        <v>20</v>
+      </c>
+      <c r="C60">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>100</v>
+      </c>
+      <c r="B61">
+        <v>20</v>
+      </c>
+      <c r="C61">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>101</v>
+      </c>
+      <c r="B62">
+        <v>21</v>
+      </c>
+      <c r="C62">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>102</v>
+      </c>
+      <c r="B63">
+        <v>21</v>
+      </c>
+      <c r="C63">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>103</v>
+      </c>
+      <c r="B64">
+        <v>20</v>
+      </c>
+      <c r="C64">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>104</v>
+      </c>
+      <c r="B65">
+        <v>39</v>
+      </c>
+      <c r="C65">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>105</v>
+      </c>
+      <c r="B66">
+        <v>31</v>
+      </c>
+      <c r="C66">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>106</v>
+      </c>
+      <c r="B67">
+        <v>49</v>
+      </c>
+      <c r="C67">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>107</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+      <c r="C68">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>116</v>
+      </c>
+      <c r="B71">
+        <v>65</v>
+      </c>
+      <c r="C71">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>117</v>
+      </c>
+      <c r="B72">
+        <v>54</v>
+      </c>
+      <c r="C72">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>118</v>
+      </c>
+      <c r="B73">
+        <v>41</v>
+      </c>
+      <c r="C73">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>119</v>
+      </c>
+      <c r="B74">
+        <v>61</v>
+      </c>
+      <c r="C74">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>120</v>
+      </c>
+      <c r="B75">
+        <v>49</v>
+      </c>
+      <c r="C75">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>121</v>
+      </c>
+      <c r="B76">
+        <v>70</v>
+      </c>
+      <c r="C76">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>122</v>
+      </c>
+      <c r="B77">
+        <v>70</v>
+      </c>
+      <c r="C77">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>123</v>
+      </c>
+      <c r="B78">
+        <v>47</v>
+      </c>
+      <c r="C78">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>124</v>
+      </c>
+      <c r="B79">
+        <v>73</v>
+      </c>
+      <c r="C79">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>125</v>
+      </c>
+      <c r="B80">
+        <v>69</v>
+      </c>
+      <c r="C80">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>126</v>
+      </c>
+      <c r="B81">
+        <v>39</v>
+      </c>
+      <c r="C81">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>127</v>
+      </c>
+      <c r="B82">
+        <v>24</v>
+      </c>
+      <c r="C82">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>128</v>
+      </c>
+      <c r="B83">
+        <v>20</v>
+      </c>
+      <c r="C83">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>129</v>
+      </c>
+      <c r="B84">
+        <v>24</v>
+      </c>
+      <c r="C84">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>130</v>
+      </c>
+      <c r="B85">
+        <v>21</v>
+      </c>
+      <c r="C85">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>131</v>
+      </c>
+      <c r="B86">
+        <v>20</v>
+      </c>
+      <c r="C86">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>132</v>
+      </c>
+      <c r="B87">
+        <v>21</v>
+      </c>
+      <c r="C87">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>133</v>
+      </c>
+      <c r="B88">
+        <v>25</v>
+      </c>
+      <c r="C88">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>134</v>
+      </c>
+      <c r="B89">
+        <v>25</v>
+      </c>
+      <c r="C89">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>135</v>
+      </c>
+      <c r="B90">
+        <v>25</v>
+      </c>
+      <c r="C90">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>136</v>
+      </c>
+      <c r="B91">
+        <v>25</v>
+      </c>
+      <c r="C91">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>137</v>
+      </c>
+      <c r="B92">
+        <v>26</v>
+      </c>
+      <c r="C92">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>138</v>
+      </c>
+      <c r="B93">
+        <v>25</v>
+      </c>
+      <c r="C93">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>139</v>
+      </c>
+      <c r="B94">
+        <v>24</v>
+      </c>
+      <c r="C94">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>140</v>
+      </c>
+      <c r="B95">
+        <v>26</v>
+      </c>
+      <c r="C95">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>141</v>
+      </c>
+      <c r="B96">
+        <v>26</v>
+      </c>
+      <c r="C96">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>142</v>
+      </c>
+      <c r="B97">
+        <v>25</v>
+      </c>
+      <c r="C97">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>143</v>
+      </c>
+      <c r="B98">
+        <v>27</v>
+      </c>
+      <c r="C98">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>144</v>
+      </c>
+      <c r="B99">
+        <v>26</v>
+      </c>
+      <c r="C99">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>145</v>
+      </c>
+      <c r="B100">
+        <v>25</v>
+      </c>
+      <c r="C100">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>146</v>
+      </c>
+      <c r="B101">
+        <v>24</v>
+      </c>
+      <c r="C101">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>147</v>
+      </c>
+      <c r="B102">
+        <v>25</v>
+      </c>
+      <c r="C102">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>148</v>
+      </c>
+      <c r="B103">
+        <v>27</v>
+      </c>
+      <c r="C103">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>149</v>
+      </c>
+      <c r="B104">
+        <v>24</v>
+      </c>
+      <c r="C104">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>150</v>
+      </c>
+      <c r="B105">
+        <v>26</v>
+      </c>
+      <c r="C105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>151</v>
+      </c>
+      <c r="B106">
+        <v>25</v>
+      </c>
+      <c r="C106">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>152</v>
+      </c>
+      <c r="B107">
+        <v>27</v>
+      </c>
+      <c r="C107">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>153</v>
+      </c>
+      <c r="B108">
+        <v>25</v>
+      </c>
+      <c r="C108">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>154</v>
+      </c>
+      <c r="B109">
+        <v>24</v>
+      </c>
+      <c r="C109">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>155</v>
+      </c>
+      <c r="B110">
+        <v>24</v>
+      </c>
+      <c r="C110">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>156</v>
+      </c>
+      <c r="B111">
+        <v>26</v>
+      </c>
+      <c r="C111">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>157</v>
+      </c>
+      <c r="B112">
+        <v>34</v>
+      </c>
+      <c r="C112">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>158</v>
+      </c>
+      <c r="B113">
+        <v>60</v>
+      </c>
+      <c r="C113">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>159</v>
+      </c>
+      <c r="B114">
+        <v>88</v>
+      </c>
+      <c r="C114">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>160</v>
+      </c>
+      <c r="B115">
+        <v>80</v>
+      </c>
+      <c r="C115">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>